--- a/DataPool/Folha/Cadastros Gerais/Configurações/Conf. RAIS/Conf. RAIS.xlsx
+++ b/DataPool/Folha/Cadastros Gerais/Configurações/Conf. RAIS/Conf. RAIS.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="24000" windowHeight="9795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastrar" sheetId="1" r:id="rId1"/>
     <sheet name="Excluir" sheetId="2" r:id="rId2"/>
+    <sheet name="RaisEve" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>IDRAIS</t>
   </si>
@@ -70,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,6 +86,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -92,7 +100,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,7 +208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,114 +216,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,39 +429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,17 +462,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,153 +490,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,8 +1007,8 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -1106,10 +1107,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -1117,25 +1118,24 @@
     <col min="1" max="1" width="11.1428571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.2857142857143" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.57142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.4285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.1428571428571" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.4285714285714" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.8571428571429" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.4285714285714" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.57142857142857" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.4285714285714" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28571428571429" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.2857142857143" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.2857142857143" style="1" customWidth="1"/>
-    <col min="18" max="19" width="12.2857142857143" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.4285714285714" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.14285714285714" style="1"/>
+    <col min="4" max="4" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.1428571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.8571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.57142857142857" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.4285714285714" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28571428571429" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="17" max="18" width="12.2857142857143" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.4285714285714" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,38 +1146,104 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
-      <c r="E2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="3" width="9.14285714285714" style="1"/>
+    <col min="4" max="4" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.1428571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.8571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="3:10">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
